--- a/src/test/resources/testData/EventEdit.xlsx
+++ b/src/test/resources/testData/EventEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>1262819748</t>
+  </si>
+  <si>
+    <t>6875833832</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="1" max="10" customWidth="true" width="20.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -513,7 +516,7 @@
         <v>295582</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>

--- a/src/test/resources/testData/EventEdit.xlsx
+++ b/src/test/resources/testData/EventEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>6875833832</t>
+  </si>
+  <si>
+    <t>8860744903</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
         <v>295582</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>

--- a/src/test/resources/testData/EventEdit.xlsx
+++ b/src/test/resources/testData/EventEdit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>8860744903</t>
+  </si>
+  <si>
+    <t>6846997726</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
         <v>295582</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
